--- a/server/templates/template - backup.xlsx
+++ b/server/templates/template - backup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789"/>
+    <workbookView windowWidth="27945" windowHeight="12300" tabRatio="789" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="スタート" sheetId="9" r:id="rId1"/>
@@ -7184,14 +7184,9 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52f6306e-e7e4-4aef-9c31-677933469b71}" type="VALUE">
+                    <a:fld id="{b78ac04e-2039-4f14-baa5-dbef1978e8b5}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -8072,14 +8067,9 @@
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62e7eed1-4ea5-4a82-a71d-54cda2675fd9}" type="VALUE">
+                    <a:fld id="{6cc60fe4-d4b8-4ef5-bf04-4d692277f3fc}" type="VALUE">
                       <a:t>[VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="7" charset="0"/>
-                      <a:cs typeface="+mn-ea"/>
-                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -9623,7 +9613,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="2125980"/>
+        <a:off x="0" y="2097405"/>
         <a:ext cx="5384800" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9653,7 +9643,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5918200" y="2133600"/>
+        <a:off x="5918200" y="2105025"/>
         <a:ext cx="4912995" cy="2476500"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9685,7 +9675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8036560" y="0"/>
-          <a:ext cx="2924175" cy="1943100"/>
+          <a:ext cx="2924175" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9760,7 +9750,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8825230" y="4800600"/>
+          <a:off x="8825230" y="4772025"/>
           <a:ext cx="1789430" cy="613410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9798,7 +9788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10974705" y="26035"/>
-          <a:ext cx="5055870" cy="2047875"/>
+          <a:ext cx="5055870" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10921,7 +10911,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="441343"/>
+    <xdr:ext cx="558800" cy="450868"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -10930,7 +10920,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2663190" y="2765425"/>
-          <a:ext cx="558800" cy="441325"/>
+          <a:ext cx="558800" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10974,7 +10964,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="558800" cy="441343"/>
+    <xdr:ext cx="558800" cy="450868"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -10983,7 +10973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4423410" y="2774315"/>
-          <a:ext cx="558800" cy="441325"/>
+          <a:ext cx="558800" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12201,7 +12191,7 @@
   </sheetPr>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A73" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I84" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13626,8 +13616,8 @@
   </sheetPr>
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69523809523809" defaultRowHeight="15"/>
@@ -13671,7 +13661,7 @@
       <c r="R1" s="173"/>
       <c r="S1" s="173"/>
     </row>
-    <row r="2" ht="15.75" spans="1:19">
+    <row r="2" spans="1:19">
       <c r="A2" s="174" t="s">
         <v>289</v>
       </c>
@@ -13722,12 +13712,12 @@
       </c>
       <c r="S2" s="173"/>
     </row>
-    <row r="3" ht="15.75" spans="1:19">
+    <row r="3" spans="1:19">
       <c r="A3" s="174" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="175">
-        <f>'⑥製造（経費)'!I2*1000000</f>
+        <f>'②⑧MQ（未来）'!F3*1000000</f>
         <v>0</v>
       </c>
       <c r="C3" s="176"/>
@@ -13781,7 +13771,7 @@
       </c>
       <c r="S3" s="173"/>
     </row>
-    <row r="4" ht="15.75" spans="1:19">
+    <row r="4" spans="1:19">
       <c r="A4" s="174" t="s">
         <v>294</v>
       </c>
@@ -14727,7 +14717,7 @@
       <c r="S38" s="173"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7oqZx4WxeoRsOoXsyIzHj7qlLnGFPYnSbcVX4+ApidS4LospKommtbXKaGrHtkdhGM+L0aVCCBEE0U6xj1OgFA==" saltValue="fkh6xw6sU9kLKbnJn0UllA==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RjmvHDVxK96b0y+5Wh/jqg9U4JTwnCcy89aVPul7Uqzt0kKTgckDQbSgl+XuKipdILn9kk1Z8MX1VX/Odjev5g==" saltValue="okApC6Mu9Zf6nEGyiOG6Hw==" spinCount="100000" sheet="1" objects="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
@@ -24286,7 +24276,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+      <selection activeCell="I3" sqref="I3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24550,7 +24540,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:V40"/>
+      <selection activeCell="H13" sqref="H13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24890,7 +24880,7 @@
       </c>
       <c r="G13" s="364"/>
       <c r="H13" s="349">
-        <f>④経費!I2*1000000/1000000</f>
+        <f>(④経費!I2*1000000+③給料!N2*1000000)/1000000</f>
         <v>0</v>
       </c>
       <c r="I13" s="364"/>
@@ -25581,7 +25571,7 @@
       <c r="V40" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K7P+sV/1aRtWRvFONwoiavnL9KsPoB01FWIT2NOSvD5/2R4sy/KJanBkKBVGzg3UtJN+MLm8q4wQ14TjTH5xMA==" saltValue="BtJlEPE1ByqSTj2CSEctbg==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rvu4HmdLxet1kBUyQ76Gs4kNMWGGJwMSCVq6G+IAgCB3U9DNlVz38RlJbDx6zrk4IRUeixVheSxQh2RV+ZFa0g==" saltValue="51NsnPRx1WMy2N8YFcKQ5A==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="21">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:I2"/>
@@ -25617,8 +25607,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q30"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26412,7 +26402,7 @@
       <c r="Q30" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4NTOkJl0hN+/FjAz+0tIgOHMA896c5f6UC85aU5t0zC8cpUzU28Dd12dTsfTQmcjrXmWRSxFJp6a9HHEF6AzxQ==" saltValue="tyVZW2JIFk1xLZ7jULx9CA==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OZrku1EfXIV1kyOS+qYmL3/f6LEpyc/qKBoLBleFe4AGd4P/JmL0F8p1P0ZPNhYupQ5lIykadeSvk80lklXVZQ==" saltValue="NGf6oKKHPVPH587oJSlNgg==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="N2:P2"/>
@@ -26431,8 +26421,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M49"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -26780,7 +26770,7 @@
         <v>250</v>
       </c>
       <c r="L17" s="264">
-        <f>SUM(スタート!C29:C34)</f>
+        <f>SUM(スタート!C29:C36)</f>
         <v>0</v>
       </c>
       <c r="M17" s="335"/>
@@ -27286,7 +27276,7 @@
       <c r="M49" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fzT0NLqSO7p0fHGj6S2LWviE5KOlgTyzWNBnXmVLrNt0GeerXY3G8UzM/gKqAKKOtsNJhCoSakFBX90pl1IITA==" saltValue="Vaw5wFUMJdRFRNYURk5J8Q==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LAKz0zxaVEE/SKFbRyVXyz9Fr5d56Jglzak3Sv6XrsrpjpcH0Z1r1doHjJ4nh+GG5Egz1nNVccsyJRwQwDp9vw==" saltValue="aQ+E/jhjLFE/QiSBTIJPWA==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>
@@ -27307,8 +27297,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:R32"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28169,7 +28159,7 @@
       <c r="R32" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="B5dhWZxmc6riPrxpSnwuHT0327q7QuLXm0NOh05uWHf6CstciJy6IajAk9GjPxjB1suM0iEWZLoDc7x0+jXxPg==" saltValue="V4eJPb36IyTmrXrXd9UXRw==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XkYp19lYupFIzhFC5BaWwI82sHmMfkLmROZ9N8BZCpLWfZ+cJHHgfptDIgx5U6Q9BxQCCls/zFaF0OpSU+u7fQ==" saltValue="64KF9LLHOXSyjYGvCpyw5g==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="N2:P2"/>
@@ -28188,8 +28178,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N47"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -28314,7 +28304,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="81">
-        <f>スタート!D60</f>
+        <f>'⑤製造原価 (人）'!E14</f>
         <v>0</v>
       </c>
       <c r="J5" s="272"/>
@@ -28335,7 +28325,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="281">
-        <f>スタート!D61</f>
+        <f>'⑤製造原価 (人）'!J14</f>
         <v>0</v>
       </c>
       <c r="J6" s="272"/>
@@ -28356,7 +28346,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="281">
-        <f>スタート!D62</f>
+        <f>'⑤製造原価 (人）'!O14</f>
         <v>0</v>
       </c>
       <c r="J7" s="272"/>
@@ -29046,7 +29036,7 @@
       <c r="N47" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tGShNCkisPLxe+gtk/qKRtclV1HXcOU0jJ6fFpOxxhEE3JPILKqSaJo/5zFj8xEW0JYnpcCoSzbsgl5uHEhruw==" saltValue="ZUAU2lY43or35PXndPc7mg==" spinCount="100000" sheet="1" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tMjea2mKKCp7EHj/llV6dKoiR2OaangRaZxnxXbVd/kNkJXJEnBYL9sgPgzE6wwbBk98rn0jV/Y9eaVwfzg2aw==" saltValue="uzFtr6m4TRqdjOIY/pKdnA==" spinCount="100000" sheet="1" objects="1"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:H2"/>
